--- a/박스.xlsx
+++ b/박스.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1E4397F-B1B9-4EE9-972C-67782265B8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE14DE55-BB99-4179-85D9-99016AF2B65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D8C604F9-61CF-4CC6-8784-E2A77AA0350B}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -183,7 +183,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -527,7 +527,7 @@
   <dimension ref="C4:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
